--- a/ProcessedData/conf_svm_audio_1.xlsx
+++ b/ProcessedData/conf_svm_audio_1.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.102885612251169</v>
+        <v>-1.102883387599132</v>
       </c>
       <c r="C2">
-        <v>-0.3695329894589756</v>
+        <v>-0.3695463856739584</v>
       </c>
       <c r="D2">
-        <v>0.3899012422711952</v>
+        <v>0.3898815691242987</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -434,13 +425,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.7552014096370142</v>
+        <v>-0.7551976402648553</v>
       </c>
       <c r="C3">
-        <v>-0.4407447153993048</v>
+        <v>-0.4407590650756026</v>
       </c>
       <c r="D3">
-        <v>0.1505435380192233</v>
+        <v>0.1505233796033338</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -454,13 +445,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5293770529748695</v>
+        <v>-0.529374144962387</v>
       </c>
       <c r="C4">
-        <v>-0.130868340012591</v>
+        <v>-0.1308813038913593</v>
       </c>
       <c r="D4">
-        <v>-0.3740256278965488</v>
+        <v>-0.3740458229147139</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -474,13 +465,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1084294497433418</v>
+        <v>-0.1084261245161965</v>
       </c>
       <c r="C5">
-        <v>-0.06090677792013</v>
+        <v>-0.06091922833798868</v>
       </c>
       <c r="D5">
-        <v>-0.9143993949411828</v>
+        <v>-0.9144190906449631</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -494,13 +485,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.6317102686174569</v>
+        <v>-0.6317065263058719</v>
       </c>
       <c r="C6">
-        <v>-0.03321560387057654</v>
+        <v>-0.03322927106796381</v>
       </c>
       <c r="D6">
-        <v>-0.4474216014265553</v>
+        <v>-0.4474412839593773</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -514,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.2310953055486924</v>
+        <v>-0.2310919691077209</v>
       </c>
       <c r="C7">
-        <v>-0.5058203183917382</v>
+        <v>-0.5058336684764189</v>
       </c>
       <c r="D7">
-        <v>-0.3135108774365878</v>
+        <v>-0.3135294329912055</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -534,13 +525,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2972987942224229</v>
+        <v>-0.2972939968313502</v>
       </c>
       <c r="C8">
-        <v>-0.1372724009069406</v>
+        <v>-0.1372861710322822</v>
       </c>
       <c r="D8">
-        <v>-0.615259113431196</v>
+        <v>-0.6152787980986316</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -554,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.7212886161256046</v>
+        <v>-0.7212853876047783</v>
       </c>
       <c r="C9">
-        <v>-0.1262640483074658</v>
+        <v>-0.1262773289916364</v>
       </c>
       <c r="D9">
-        <v>-0.2619474786329745</v>
+        <v>-0.2619673011431278</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -574,13 +565,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.15780487922567</v>
+        <v>-0.1578014058846894</v>
       </c>
       <c r="C10">
-        <v>-0.07374238977289715</v>
+        <v>-0.07375493726529792</v>
       </c>
       <c r="D10">
-        <v>-0.8385666398622085</v>
+        <v>-0.8385861221892394</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -594,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.7619579684442284</v>
+        <v>-0.7619554600946888</v>
       </c>
       <c r="C11">
-        <v>-0.1198612069341869</v>
+        <v>-0.1198748698216491</v>
       </c>
       <c r="D11">
-        <v>-0.2110274457030259</v>
+        <v>-0.2110483984430584</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -614,13 +605,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.8338139002665118</v>
+        <v>-0.833811446950025</v>
       </c>
       <c r="C12">
-        <v>-0.4576847000227506</v>
+        <v>-0.457698746215323</v>
       </c>
       <c r="D12">
-        <v>0.211923531395716</v>
+        <v>0.2119040087598432</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -634,13 +625,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.5038704091269398</v>
+        <v>-0.5038666495868842</v>
       </c>
       <c r="C13">
-        <v>-0.3440718982287955</v>
+        <v>-0.3440854321747739</v>
       </c>
       <c r="D13">
-        <v>-0.1986734006096924</v>
+        <v>-0.1986936657155407</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -654,13 +645,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1639766317740018</v>
+        <v>-0.1639717269828411</v>
       </c>
       <c r="C14">
-        <v>-0.07288762923441738</v>
+        <v>-0.0729014394841343</v>
       </c>
       <c r="D14">
-        <v>-0.8565388123909805</v>
+        <v>-0.8565585820836823</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -674,13 +665,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.06723559769809634</v>
+        <v>0.06723885355239223</v>
       </c>
       <c r="C15">
-        <v>-0.1204441050856019</v>
+        <v>-0.1204564147782548</v>
       </c>
       <c r="D15">
-        <v>-0.9876556220489074</v>
+        <v>-0.9876750881531154</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -694,13 +685,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.15593261130561</v>
+        <v>-1.155929832246568</v>
       </c>
       <c r="C16">
-        <v>-0.04643698006033825</v>
+        <v>-0.04644957840791752</v>
       </c>
       <c r="D16">
-        <v>0.09591635535061949</v>
+        <v>0.0958962164942565</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -714,13 +705,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.8535196234958046</v>
+        <v>-0.8535163816339706</v>
       </c>
       <c r="C17">
-        <v>0.1946389441172423</v>
+        <v>0.1946256920017737</v>
       </c>
       <c r="D17">
-        <v>-0.3908415802476906</v>
+        <v>-0.3908620154614344</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -734,13 +725,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.5723132704348417</v>
+        <v>-0.5723094473233319</v>
       </c>
       <c r="C18">
-        <v>-0.05896360119641597</v>
+        <v>-0.058976744413055</v>
       </c>
       <c r="D18">
-        <v>-0.4594168507039333</v>
+        <v>-0.4594370135974155</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -754,13 +745,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.082000975529382</v>
+        <v>-1.081998196884707</v>
       </c>
       <c r="C19">
-        <v>-0.1386825317584173</v>
+        <v>-0.1386963024046578</v>
       </c>
       <c r="D19">
-        <v>0.1586315664877862</v>
+        <v>0.1586116333552687</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -774,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.3934898919913639</v>
+        <v>-0.3934854898180707</v>
       </c>
       <c r="C20">
-        <v>-0.4147440159143958</v>
+        <v>-0.4147580730641084</v>
       </c>
       <c r="D20">
-        <v>-0.2314322801002191</v>
+        <v>-0.2314523196414804</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -794,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.7623053033586514</v>
+        <v>-0.7623023320251752</v>
       </c>
       <c r="C21">
-        <v>-0.4941865727106585</v>
+        <v>-0.4941997373255296</v>
       </c>
       <c r="D21">
-        <v>0.1913574651239087</v>
+        <v>0.1913387797932309</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -814,13 +805,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.618764475653819</v>
+        <v>-0.6187609491194883</v>
       </c>
       <c r="C22">
-        <v>-0.04344942010977437</v>
+        <v>-0.04346208699239473</v>
       </c>
       <c r="D22">
-        <v>-0.4557223131551211</v>
+        <v>-0.4557420075151841</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -834,13 +825,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.033099397724767</v>
+        <v>-1.033095913097072</v>
       </c>
       <c r="C23">
-        <v>-0.08438718846114379</v>
+        <v>-0.08440057035415349</v>
       </c>
       <c r="D23">
-        <v>0.03375787553943832</v>
+        <v>0.03373779208056571</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -854,13 +845,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.3890498657482827</v>
+        <v>-0.3890454651198486</v>
       </c>
       <c r="C24">
-        <v>-0.3482572448152591</v>
+        <v>-0.348270677686305</v>
       </c>
       <c r="D24">
-        <v>-0.3260906504576189</v>
+        <v>-0.3261098774598237</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -874,13 +865,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.4426486381904853</v>
+        <v>-0.4426446958590055</v>
       </c>
       <c r="C25">
-        <v>-0.5157758626791753</v>
+        <v>-0.5157892137589732</v>
       </c>
       <c r="D25">
-        <v>-0.1255417349534584</v>
+        <v>-0.1255604338078233</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -894,13 +885,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.6745100141055348</v>
+        <v>-0.6745061131130345</v>
       </c>
       <c r="C26">
-        <v>-0.2084300995218266</v>
+        <v>-0.2084433890042537</v>
       </c>
       <c r="D26">
-        <v>-0.2004001731954235</v>
+        <v>-0.2004214078716451</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -914,13 +905,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.9948738596538318</v>
+        <v>-0.9948702995310981</v>
       </c>
       <c r="C27">
-        <v>-0.2723182817978863</v>
+        <v>-0.2723321829919765</v>
       </c>
       <c r="D27">
-        <v>0.1769341044116017</v>
+        <v>0.1769147667365361</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -934,13 +925,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.5969000658229391</v>
+        <v>-0.5968955206266278</v>
       </c>
       <c r="C28">
-        <v>-0.3144246144946246</v>
+        <v>-0.3144386677998078</v>
       </c>
       <c r="D28">
-        <v>-0.1670425550594827</v>
+        <v>-0.1670635970262906</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -954,13 +945,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.3039229606954067</v>
+        <v>-0.3039190927566888</v>
       </c>
       <c r="C29">
-        <v>-0.3582682885111278</v>
+        <v>-0.3582823433856351</v>
       </c>
       <c r="D29">
-        <v>-0.3959431898933612</v>
+        <v>-0.3959622640237497</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -974,13 +965,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01029801390172186</v>
+        <v>0.01030127526483543</v>
       </c>
       <c r="C30">
-        <v>-0.1175302335607661</v>
+        <v>-0.117542657401664</v>
       </c>
       <c r="D30">
-        <v>-0.9380079403956472</v>
+        <v>-0.9380274652359306</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -994,13 +985,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.161568007812953</v>
+        <v>-1.161566389652506</v>
       </c>
       <c r="C31">
-        <v>-0.3562694745178451</v>
+        <v>-0.356282531294021</v>
       </c>
       <c r="D31">
-        <v>0.4230088422934291</v>
+        <v>0.4229898912194781</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1014,13 +1005,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.5913367590204616</v>
+        <v>-0.591332839049449</v>
       </c>
       <c r="C32">
-        <v>-0.156966037921067</v>
+        <v>-0.1569795934743932</v>
       </c>
       <c r="D32">
-        <v>-0.3133340784594363</v>
+        <v>-0.3133540925611886</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1034,13 +1025,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.6224125809495769</v>
+        <v>-0.6224088050373319</v>
       </c>
       <c r="C33">
-        <v>0.0619233107096917</v>
+        <v>0.06191000056272933</v>
       </c>
       <c r="D33">
-        <v>-0.5255715117978939</v>
+        <v>-0.5255910729903244</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1054,13 +1045,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.4773836328718254</v>
+        <v>-0.4773798438110954</v>
       </c>
       <c r="C34">
-        <v>-0.1039254147666258</v>
+        <v>-0.1039391232364778</v>
       </c>
       <c r="D34">
-        <v>-0.5008499502323067</v>
+        <v>-0.5008697357010987</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1074,13 +1065,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.06324100681620122</v>
+        <v>0.06324491406348494</v>
       </c>
       <c r="C35">
-        <v>-0.6783661227165239</v>
+        <v>-0.6783795432910864</v>
       </c>
       <c r="D35">
-        <v>-0.4496077695409717</v>
+        <v>-0.4496299226412925</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1094,13 +1085,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.3637680450213124</v>
+        <v>0.3637726379069625</v>
       </c>
       <c r="C36">
-        <v>-0.4795325879118342</v>
+        <v>-0.4795462661968376</v>
       </c>
       <c r="D36">
-        <v>-0.9093650653088172</v>
+        <v>-0.9093844133465371</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1114,13 +1105,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.604839139995039</v>
+        <v>-0.6048347201353302</v>
       </c>
       <c r="C37">
-        <v>-0.1030353865755915</v>
+        <v>-0.1030495146166103</v>
       </c>
       <c r="D37">
-        <v>-0.4079572910234106</v>
+        <v>-0.4079759699060912</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1134,13 +1125,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.2212039806464801</v>
+        <v>-0.2211983643303459</v>
       </c>
       <c r="C38">
-        <v>0.05397747600180725</v>
+        <v>0.05396262955962006</v>
       </c>
       <c r="D38">
-        <v>-0.9516562336270231</v>
+        <v>-0.951675220421917</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1154,13 +1145,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.03523810938736829</v>
+        <v>-0.03523335874499603</v>
       </c>
       <c r="C39">
-        <v>-0.28534814692273</v>
+        <v>-0.2853622902682453</v>
       </c>
       <c r="D39">
-        <v>-0.7136358154925846</v>
+        <v>-0.713654823830508</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1174,13 +1165,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.003119192383393476</v>
+        <v>-0.003113483830433111</v>
       </c>
       <c r="C40">
-        <v>0.03644180589036289</v>
+        <v>0.03642789582814765</v>
       </c>
       <c r="D40">
-        <v>-1.121123214777519</v>
+        <v>-1.121142086344773</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1194,13 +1185,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.3982091999872164</v>
+        <v>-0.3982046134420615</v>
       </c>
       <c r="C41">
-        <v>-0.1401620242866572</v>
+        <v>-0.1401761402862335</v>
       </c>
       <c r="D41">
-        <v>-0.5462744855927428</v>
+        <v>-0.5462934350732023</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1214,13 +1205,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1044643698837521</v>
+        <v>0.1044680152720703</v>
       </c>
       <c r="C42">
-        <v>-0.3963474157247767</v>
+        <v>-0.396360491840831</v>
       </c>
       <c r="D42">
-        <v>-0.728018439647216</v>
+        <v>-0.728038185001717</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1234,13 +1225,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.1978976362782747</v>
+        <v>-0.1978933562540579</v>
       </c>
       <c r="C43">
-        <v>-0.3697658332384449</v>
+        <v>-0.3697795547920334</v>
       </c>
       <c r="D43">
-        <v>-0.5301228138977867</v>
+        <v>-0.5301419002581653</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1254,13 +1245,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.2033663272975778</v>
+        <v>-0.203361521902294</v>
       </c>
       <c r="C44">
-        <v>-0.086707372515473</v>
+        <v>-0.08672148811703506</v>
       </c>
       <c r="D44">
-        <v>-0.7903061270003471</v>
+        <v>-0.7903258668627089</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1274,13 +1265,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.09634780640772395</v>
+        <v>0.09635217611776484</v>
       </c>
       <c r="C45">
-        <v>-0.1415351341970139</v>
+        <v>-0.1415487522275815</v>
       </c>
       <c r="D45">
-        <v>-1.027667594416744</v>
+        <v>-1.027686963203012</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1294,13 +1285,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.4208133953495179</v>
+        <v>-0.4208093638796272</v>
       </c>
       <c r="C46">
-        <v>-0.2822161207787055</v>
+        <v>-0.2822296827772983</v>
       </c>
       <c r="D46">
-        <v>-0.3905280362934971</v>
+        <v>-0.3905476103521563</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1314,13 +1305,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4914605777301403</v>
+        <v>-0.4914571470255977</v>
       </c>
       <c r="C47">
-        <v>-0.2102628898249949</v>
+        <v>-0.2102775925481566</v>
       </c>
       <c r="D47">
-        <v>-0.4346500899548285</v>
+        <v>-0.4346695195262371</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1334,13 +1325,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1180376968254888</v>
+        <v>0.1180430533488728</v>
       </c>
       <c r="C48">
-        <v>-0.4211084389239229</v>
+        <v>-0.4211215843379428</v>
       </c>
       <c r="D48">
-        <v>-0.7920531732867391</v>
+        <v>-0.7920718055075859</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1354,13 +1345,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.2526297803271694</v>
+        <v>-0.2526247911535224</v>
       </c>
       <c r="C49">
-        <v>-0.2360949439406207</v>
+        <v>-0.2361088379135354</v>
       </c>
       <c r="D49">
-        <v>-0.6154927852445837</v>
+        <v>-0.615511899432311</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1374,13 +1365,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5695522836509275</v>
+        <v>-0.5695476532914555</v>
       </c>
       <c r="C50">
-        <v>-0.176099749264</v>
+        <v>-0.1761131079339573</v>
       </c>
       <c r="D50">
-        <v>-0.3861035608375223</v>
+        <v>-0.386122718046171</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1394,13 +1385,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2809275822702468</v>
+        <v>-0.2809232849508774</v>
       </c>
       <c r="C51">
-        <v>-0.1703789563030301</v>
+        <v>-0.1703925845950367</v>
       </c>
       <c r="D51">
-        <v>-0.6765618249323397</v>
+        <v>-0.6765805494840946</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1414,13 +1405,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.7826221232388334</v>
+        <v>-0.7826180480583651</v>
       </c>
       <c r="C52">
-        <v>-0.1984885426358165</v>
+        <v>-0.198501898165119</v>
       </c>
       <c r="D52">
-        <v>-0.1751388372965745</v>
+        <v>-0.1751573610926993</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1434,13 +1425,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1020212741492446</v>
+        <v>-0.1020164504304561</v>
       </c>
       <c r="C53">
-        <v>-0.2752215611429123</v>
+        <v>-0.2752356225876327</v>
       </c>
       <c r="D53">
-        <v>-0.6954771169158847</v>
+        <v>-0.695496931054256</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1454,13 +1445,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.3317767972890039</v>
+        <v>-0.3317714847560987</v>
       </c>
       <c r="C54">
-        <v>-0.1647325741303796</v>
+        <v>-0.1647466231994564</v>
       </c>
       <c r="D54">
-        <v>-0.5902566871483073</v>
+        <v>-0.5902768882682263</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1474,13 +1465,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.2330809456112227</v>
+        <v>-0.2330759804870969</v>
       </c>
       <c r="C55">
-        <v>-0.4477152970528422</v>
+        <v>-0.4477296823688668</v>
       </c>
       <c r="D55">
-        <v>-0.3677188902424824</v>
+        <v>-0.3677381642892625</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1494,13 +1485,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.1263044435691744</v>
+        <v>-0.1262997312302873</v>
       </c>
       <c r="C56">
-        <v>-0.1564284939350457</v>
+        <v>-0.1564422854563912</v>
       </c>
       <c r="D56">
-        <v>-0.7924352468812199</v>
+        <v>-0.7924540326227596</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1514,13 +1505,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4318111499068799</v>
+        <v>-0.4318065665182902</v>
       </c>
       <c r="C57">
-        <v>-0.11848923717059</v>
+        <v>-0.1185036444808464</v>
       </c>
       <c r="D57">
-        <v>-0.5406789935722416</v>
+        <v>-0.5406988470118732</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1534,13 +1525,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.5766746800496353</v>
+        <v>-0.576669831216305</v>
       </c>
       <c r="C58">
-        <v>-0.2593602700219986</v>
+        <v>-0.2593743928217439</v>
       </c>
       <c r="D58">
-        <v>-0.2525534610399116</v>
+        <v>-0.2525734204083003</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1554,13 +1545,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.2234426471975478</v>
+        <v>-0.2234385490422477</v>
       </c>
       <c r="C59">
-        <v>-0.3131162750491061</v>
+        <v>-0.3131295971130635</v>
       </c>
       <c r="D59">
-        <v>-0.5114855549451096</v>
+        <v>-0.5115057487477814</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1574,13 +1565,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.08815885694631484</v>
+        <v>-0.08815407656310512</v>
       </c>
       <c r="C60">
-        <v>-0.3109073206828918</v>
+        <v>-0.3109220582552232</v>
       </c>
       <c r="D60">
-        <v>-0.7032469110871389</v>
+        <v>-0.7032672684887502</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1594,13 +1585,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.7831724809207015</v>
+        <v>-0.7831691244630177</v>
       </c>
       <c r="C61">
-        <v>-0.3324804946101241</v>
+        <v>-0.3324939898497229</v>
       </c>
       <c r="D61">
-        <v>0.01731183342858222</v>
+        <v>0.01729312991413745</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1614,13 +1605,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.3473366702068417</v>
+        <v>-0.3473321017296733</v>
       </c>
       <c r="C62">
-        <v>-0.3869309822451147</v>
+        <v>-0.3869452491500764</v>
       </c>
       <c r="D62">
-        <v>-0.318737997154775</v>
+        <v>-0.3187578212321542</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1634,13 +1625,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.04074258684868029</v>
+        <v>-0.04073848776137667</v>
       </c>
       <c r="C63">
-        <v>-0.3758508215413534</v>
+        <v>-0.3758647892609581</v>
       </c>
       <c r="D63">
-        <v>-0.6450645903838161</v>
+        <v>-0.6450838640146199</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1654,13 +1645,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.9544436556693836</v>
+        <v>-0.9544382493740771</v>
       </c>
       <c r="C64">
-        <v>-0.1723543687947615</v>
+        <v>-0.172368600564567</v>
       </c>
       <c r="D64">
-        <v>0.03345018331841065</v>
+        <v>0.03343009821374743</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -1674,13 +1665,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.862797619321358</v>
+        <v>-0.862792837241865</v>
       </c>
       <c r="C65">
-        <v>-0.9147064101431932</v>
+        <v>-0.9147208100604205</v>
       </c>
       <c r="D65">
-        <v>0.6965131911025173</v>
+        <v>0.6964931672168571</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -1694,13 +1685,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.9434741908478377</v>
+        <v>-0.943471305191268</v>
       </c>
       <c r="C66">
-        <v>-1.290063039358965</v>
+        <v>-1.290078633199856</v>
       </c>
       <c r="D66">
-        <v>1.253928465155637</v>
+        <v>1.253908557172661</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1714,13 +1705,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-1.087566420034276</v>
+        <v>-1.08756231050035</v>
       </c>
       <c r="C67">
-        <v>-0.3988958955210179</v>
+        <v>-0.3989095148593519</v>
       </c>
       <c r="D67">
-        <v>0.3934248455356077</v>
+        <v>0.3934053800217359</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1734,13 +1725,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.9974536633669198</v>
+        <v>-0.997448856170426</v>
       </c>
       <c r="C68">
-        <v>-0.4426318771768876</v>
+        <v>-0.4426456998884851</v>
       </c>
       <c r="D68">
-        <v>0.3827455854684705</v>
+        <v>0.3827270525644515</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1754,13 +1745,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.4205795449085195</v>
+        <v>-0.420573362074065</v>
       </c>
       <c r="C69">
-        <v>-0.802398616804092</v>
+        <v>-0.8024126584064573</v>
       </c>
       <c r="D69">
-        <v>0.2227210937040236</v>
+        <v>0.2227011131706385</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1774,13 +1765,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.6323544560295126</v>
+        <v>-0.6323500601771416</v>
       </c>
       <c r="C70">
-        <v>-0.6847556571924871</v>
+        <v>-0.6847688943593937</v>
       </c>
       <c r="D70">
-        <v>0.3363276556061994</v>
+        <v>0.336308662326037</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -1794,13 +1785,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.284647270980719</v>
+        <v>-1.284642214782075</v>
       </c>
       <c r="C71">
-        <v>-0.3510002266188752</v>
+        <v>-0.3510141392707073</v>
       </c>
       <c r="D71">
-        <v>0.5799828085699672</v>
+        <v>0.5799626619072065</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -1814,13 +1805,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-1.044922053041806</v>
+        <v>-1.044918957839933</v>
       </c>
       <c r="C72">
-        <v>-0.3081030055243126</v>
+        <v>-0.3081158327733715</v>
       </c>
       <c r="D72">
-        <v>0.3022396776001735</v>
+        <v>0.3022217233847511</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -1834,13 +1825,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.5997075270109363</v>
+        <v>-0.5997030013093967</v>
       </c>
       <c r="C73">
-        <v>-0.4213848004244433</v>
+        <v>-0.4213983159744247</v>
       </c>
       <c r="D73">
-        <v>-0.006935403205945434</v>
+        <v>-0.006954970349011491</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -1854,13 +1845,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.6899279664679951</v>
+        <v>-0.6899232600398256</v>
       </c>
       <c r="C74">
-        <v>-0.5143353567121656</v>
+        <v>-0.5143490712516214</v>
       </c>
       <c r="D74">
-        <v>0.1550553000050523</v>
+        <v>0.1550359445269418</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -1874,13 +1865,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.412353356602268</v>
+        <v>-1.412348691088236</v>
       </c>
       <c r="C75">
-        <v>-0.7342302808480039</v>
+        <v>-0.7342460397585555</v>
       </c>
       <c r="D75">
-        <v>1.113559692831058</v>
+        <v>1.113540077898</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -1894,13 +1885,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.7892110628408181</v>
+        <v>-0.7892066384536182</v>
       </c>
       <c r="C76">
-        <v>-0.3538862189681651</v>
+        <v>-0.3538994891993212</v>
       </c>
       <c r="D76">
-        <v>0.1163883200080684</v>
+        <v>0.1163696243581906</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -1914,13 +1905,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.5766477237100529</v>
+        <v>-0.5766437429400502</v>
       </c>
       <c r="C77">
-        <v>-0.4787936585434835</v>
+        <v>-0.4788066868068404</v>
       </c>
       <c r="D77">
-        <v>0.0195746199475515</v>
+        <v>0.01955562183365411</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -1934,13 +1925,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.1333273802433352</v>
+        <v>-0.1333237693675551</v>
       </c>
       <c r="C78">
-        <v>-0.4971041440714221</v>
+        <v>-0.4971168499731071</v>
       </c>
       <c r="D78">
-        <v>-0.402708944887739</v>
+        <v>-0.4027261281313386</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -1954,13 +1945,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-1.175137184264572</v>
+        <v>-1.175132571288193</v>
       </c>
       <c r="C79">
-        <v>-0.5366707584418782</v>
+        <v>-0.5366846576575048</v>
       </c>
       <c r="D79">
-        <v>0.6189791476910398</v>
+        <v>0.6189591079626329</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -1974,13 +1965,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.6634761775601958</v>
+        <v>-0.6634715201368269</v>
       </c>
       <c r="C80">
-        <v>-0.6026662550579729</v>
+        <v>-0.6026805638251871</v>
       </c>
       <c r="D80">
-        <v>0.2043888705671293</v>
+        <v>0.2043694926662027</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -1994,13 +1985,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.5325723956353979</v>
+        <v>-0.5325681433191415</v>
       </c>
       <c r="C81">
-        <v>-0.5038007613666202</v>
+        <v>-0.5038136092422638</v>
       </c>
       <c r="D81">
-        <v>0.02335819676645268</v>
+        <v>0.02333909855083305</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2014,13 +2005,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.448310481052283</v>
+        <v>-0.4483063085410018</v>
       </c>
       <c r="C82">
-        <v>-0.5385223141810629</v>
+        <v>-0.5385356920791191</v>
       </c>
       <c r="D82">
-        <v>-0.0103124744864671</v>
+        <v>-0.01033142615800431</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2034,13 +2025,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.8335822193580568</v>
+        <v>-0.833577569457385</v>
       </c>
       <c r="C83">
-        <v>-0.4298678820010942</v>
+        <v>-0.4298820127866154</v>
       </c>
       <c r="D83">
-        <v>0.2356667791240312</v>
+        <v>0.2356477752049817</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2054,13 +2045,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.6950639424357877</v>
+        <v>-0.6950586631175787</v>
       </c>
       <c r="C84">
-        <v>-0.5779466911579654</v>
+        <v>-0.5779607301029339</v>
       </c>
       <c r="D84">
-        <v>0.233848563999961</v>
+        <v>0.2338292793620842</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2074,13 +2065,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4990930036895956</v>
+        <v>-0.4990880095280098</v>
       </c>
       <c r="C85">
-        <v>-0.5923328421895717</v>
+        <v>-0.5923466464389544</v>
       </c>
       <c r="D85">
-        <v>0.06329628366714402</v>
+        <v>0.06327740780764901</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2094,13 +2085,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.8241637736598043</v>
+        <v>-0.8241587281474048</v>
       </c>
       <c r="C86">
-        <v>-0.6637693485459419</v>
+        <v>-0.6637830007602175</v>
       </c>
       <c r="D86">
-        <v>0.4756749842400039</v>
+        <v>0.4756556859730425</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2114,13 +2105,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.813815106142361</v>
+        <v>-0.8138105142781369</v>
       </c>
       <c r="C87">
-        <v>-0.6789652883533857</v>
+        <v>-0.6789789560607595</v>
       </c>
       <c r="D87">
-        <v>0.4608148580542442</v>
+        <v>0.4607961278147639</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2134,13 +2125,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.9395078800585173</v>
+        <v>-0.9395031212902314</v>
       </c>
       <c r="C88">
-        <v>-0.5807993342042308</v>
+        <v>-0.580812981275493</v>
       </c>
       <c r="D88">
-        <v>0.4851042887773875</v>
+        <v>0.485085508407284</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2154,13 +2145,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-1.518020282756935</v>
+        <v>-1.518015633692177</v>
       </c>
       <c r="C89">
-        <v>-0.2873157899793919</v>
+        <v>-0.2873290615547122</v>
       </c>
       <c r="D89">
-        <v>0.7420860994911918</v>
+        <v>0.7420672962941182</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -2174,13 +2165,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.462551502415918</v>
+        <v>-1.462547208720493</v>
       </c>
       <c r="C90">
-        <v>-0.3782186608621619</v>
+        <v>-0.3782314880299684</v>
       </c>
       <c r="D90">
-        <v>0.7698764456291181</v>
+        <v>0.7698569115800815</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -2194,13 +2185,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.277588974073806</v>
+        <v>-1.277585277860757</v>
       </c>
       <c r="C91">
-        <v>-0.6528890749294134</v>
+        <v>-0.652904366721087</v>
       </c>
       <c r="D91">
-        <v>0.7945614993582417</v>
+        <v>0.7945431374160243</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -2214,13 +2205,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-2.112885440723313</v>
+        <v>-2.112881420752722</v>
       </c>
       <c r="C92">
-        <v>-0.5698345565944385</v>
+        <v>-0.5698492503370172</v>
       </c>
       <c r="D92">
-        <v>1.562913213814622</v>
+        <v>1.562894315981163</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -2234,13 +2225,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.007337481090016251</v>
+        <v>0.007342391809383397</v>
       </c>
       <c r="C93">
-        <v>-0.4040606525302197</v>
+        <v>-0.4040743805050743</v>
       </c>
       <c r="D93">
-        <v>-0.6379026903975291</v>
+        <v>-0.6379210550496099</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -2254,13 +2245,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.9305464744640957</v>
+        <v>-0.9305412633611476</v>
       </c>
       <c r="C94">
-        <v>-0.7261504106570351</v>
+        <v>-0.726163976594155</v>
       </c>
       <c r="D94">
-        <v>0.5874248284823111</v>
+        <v>0.587404405892447</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -2274,13 +2265,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.2743703771015956</v>
+        <v>-0.2743665760133293</v>
       </c>
       <c r="C95">
-        <v>-0.1059778308199028</v>
+        <v>-0.1059913554444698</v>
       </c>
       <c r="D95">
-        <v>-0.7414177484503264</v>
+        <v>-0.7414378590784394</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -2294,13 +2285,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.3933458327521852</v>
+        <v>-0.3933414723654151</v>
       </c>
       <c r="C96">
-        <v>0.2382253541828808</v>
+        <v>0.2382128121420229</v>
       </c>
       <c r="D96">
-        <v>-0.9626610976417349</v>
+        <v>-0.9626803675509134</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -2314,13 +2305,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.06200265897214832</v>
+        <v>0.06200689601853469</v>
       </c>
       <c r="C97">
-        <v>-0.01817189734676661</v>
+        <v>-0.01818538023875871</v>
       </c>
       <c r="D97">
-        <v>-1.130254948421382</v>
+        <v>-1.130274261415306</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -2334,13 +2325,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1027375850692887</v>
+        <v>-0.1027333269276119</v>
       </c>
       <c r="C98">
-        <v>0.09078298870799179</v>
+        <v>0.09077023436340992</v>
       </c>
       <c r="D98">
-        <v>-1.095513722486286</v>
+        <v>-1.095532325927759</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -2354,13 +2345,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.6659226315161287</v>
+        <v>-0.6659187084984665</v>
       </c>
       <c r="C99">
-        <v>0.1797945854189724</v>
+        <v>0.1797821253705515</v>
       </c>
       <c r="D99">
-        <v>-0.6455175975593792</v>
+        <v>-0.6455367905805545</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -2374,13 +2365,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.387620912720634</v>
+        <v>-0.3876173341172011</v>
       </c>
       <c r="C100">
-        <v>0.1304151858428691</v>
+        <v>0.1304026287586695</v>
       </c>
       <c r="D100">
-        <v>-0.8777105093556954</v>
+        <v>-0.8777289201101467</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2394,13 +2385,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.1221040405000643</v>
+        <v>-0.1220989255678002</v>
       </c>
       <c r="C101">
-        <v>-0.2434188319042124</v>
+        <v>-0.2434329031464395</v>
       </c>
       <c r="D101">
-        <v>-0.7229987975466332</v>
+        <v>-0.7230185526334156</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -2414,13 +2405,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.8107552764542448</v>
+        <v>-0.8107519537466203</v>
       </c>
       <c r="C102">
-        <v>0.07166404060393972</v>
+        <v>0.07165159777946428</v>
       </c>
       <c r="D102">
-        <v>-0.4862445184523632</v>
+        <v>-0.4862637949279722</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -2434,13 +2425,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.1821137859301743</v>
+        <v>-0.1821109905913285</v>
       </c>
       <c r="C103">
-        <v>0.1947971338514075</v>
+        <v>0.1947837603064823</v>
       </c>
       <c r="D103">
-        <v>-1.199804455842876</v>
+        <v>-1.199821561051753</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -2454,13 +2445,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.1041084454043411</v>
+        <v>0.1041121588217395</v>
       </c>
       <c r="C104">
-        <v>-0.003624754110006845</v>
+        <v>-0.003638509586643135</v>
       </c>
       <c r="D104">
-        <v>-1.136706583223004</v>
+        <v>-1.136725437238573</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -2474,13 +2465,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1990525512329416</v>
+        <v>0.1990570397773376</v>
       </c>
       <c r="C105">
-        <v>-0.0421758781010636</v>
+        <v>-0.04218927317867249</v>
       </c>
       <c r="D105">
-        <v>-1.211384960724903</v>
+        <v>-1.211403456846372</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -2494,13 +2485,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.1491682885510472</v>
+        <v>-0.1491639667624463</v>
       </c>
       <c r="C106">
-        <v>0.03706248051843025</v>
+        <v>0.03704986116743691</v>
       </c>
       <c r="D106">
-        <v>-1.029482632652196</v>
+        <v>-1.029501274581785</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -2514,13 +2505,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.2954838117057023</v>
+        <v>-0.295480142934971</v>
       </c>
       <c r="C107">
-        <v>0.2378469538539779</v>
+        <v>0.2378341197262123</v>
       </c>
       <c r="D107">
-        <v>-1.08017032143474</v>
+        <v>-1.080188987118603</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -2534,13 +2525,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.3224154844609074</v>
+        <v>-0.3224137279395195</v>
       </c>
       <c r="C108">
-        <v>0.4038237046945667</v>
+        <v>0.4038119873544979</v>
       </c>
       <c r="D108">
-        <v>-1.30086087088498</v>
+        <v>-1.300876948781907</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -2554,13 +2545,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.2591431226653109</v>
+        <v>-0.2591405859130634</v>
       </c>
       <c r="C109">
-        <v>0.268480752015464</v>
+        <v>0.2684686844166386</v>
       </c>
       <c r="D109">
-        <v>-1.132848425806915</v>
+        <v>-1.132865671088696</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -2574,13 +2565,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.1494957014638147</v>
+        <v>-0.1494913501463136</v>
       </c>
       <c r="C110">
-        <v>0.05836984462847183</v>
+        <v>0.05835708264642719</v>
       </c>
       <c r="D110">
-        <v>-0.9668217717047298</v>
+        <v>-0.966839656947488</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -2594,13 +2585,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.137325054239377</v>
+        <v>-0.1373205746120524</v>
       </c>
       <c r="C111">
-        <v>-0.1225337555100999</v>
+        <v>-0.122547094238958</v>
       </c>
       <c r="D111">
-        <v>-0.8126728306163453</v>
+        <v>-0.8126921627167256</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -2614,13 +2605,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.5481220208682424</v>
+        <v>-0.5481179915019239</v>
       </c>
       <c r="C112">
-        <v>-0.09286935015836717</v>
+        <v>-0.09288289652221937</v>
       </c>
       <c r="D112">
-        <v>-0.4180411177304757</v>
+        <v>-0.418060300989767</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -2634,13 +2625,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.04501674846036599</v>
+        <v>-0.04501356203432741</v>
       </c>
       <c r="C113">
-        <v>0.05926826659686008</v>
+        <v>0.05925556180224645</v>
       </c>
       <c r="D113">
-        <v>-1.141054317469193</v>
+        <v>-1.141073080883799</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -2654,13 +2645,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.1273220059783262</v>
+        <v>-0.1273197666480225</v>
       </c>
       <c r="C114">
-        <v>-0.007469761607276193</v>
+        <v>-0.007482494764597503</v>
       </c>
       <c r="D114">
-        <v>-1.007247348864897</v>
+        <v>-1.007265049655581</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -2674,13 +2665,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.2791972803777319</v>
+        <v>-0.2791930963080407</v>
       </c>
       <c r="C115">
-        <v>0.05751621413180985</v>
+        <v>0.0575034496308689</v>
       </c>
       <c r="D115">
-        <v>-0.8703979278152967</v>
+        <v>-0.8704169623755527</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -2694,13 +2685,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.9136435164372056</v>
+        <v>-0.9136396412634227</v>
       </c>
       <c r="C116">
-        <v>-0.1535074649927962</v>
+        <v>-0.1535206130880334</v>
       </c>
       <c r="D116">
-        <v>-0.03379089407316149</v>
+        <v>-0.03380994144113436</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -2714,13 +2705,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.259062973597597</v>
+        <v>-1.259061385275969</v>
       </c>
       <c r="C117">
-        <v>-0.5708281529460062</v>
+        <v>-0.5708416848180782</v>
       </c>
       <c r="D117">
-        <v>0.7657947097309772</v>
+        <v>0.7657757332041206</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -2734,13 +2725,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-1.148271487918291</v>
+        <v>-1.14826883333501</v>
       </c>
       <c r="C118">
-        <v>-0.09689108311421657</v>
+        <v>-0.09690411689166301</v>
       </c>
       <c r="D118">
-        <v>0.1754255241988374</v>
+        <v>0.1754058885471692</v>
       </c>
       <c r="E118">
         <v>4</v>
@@ -2754,13 +2745,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.6125979791316623</v>
+        <v>-0.6125918060587203</v>
       </c>
       <c r="C119">
-        <v>-0.2354957882597739</v>
+        <v>-0.2355105115779769</v>
       </c>
       <c r="D119">
-        <v>-0.2158858409881237</v>
+        <v>-0.2159073208347806</v>
       </c>
       <c r="E119">
         <v>4</v>
@@ -2774,13 +2765,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.8589748067875163</v>
+        <v>-0.8589723808652078</v>
       </c>
       <c r="C120">
-        <v>0.1276141926565924</v>
+        <v>0.1276023232335566</v>
       </c>
       <c r="D120">
-        <v>-0.4250528968902099</v>
+        <v>-0.4250699007863508</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -2794,13 +2785,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.9469170780362164</v>
+        <v>-0.9469125810931347</v>
       </c>
       <c r="C121">
-        <v>-0.02644434713229549</v>
+        <v>-0.02645828186263011</v>
       </c>
       <c r="D121">
-        <v>-0.16120294222184</v>
+        <v>-0.1612219426881234</v>
       </c>
       <c r="E121">
         <v>4</v>
@@ -2814,13 +2805,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-1.278849760836892</v>
+        <v>-1.278846181717781</v>
       </c>
       <c r="C122">
-        <v>-0.5184360391157037</v>
+        <v>-0.5184508015738152</v>
       </c>
       <c r="D122">
-        <v>0.7159389935430425</v>
+        <v>0.715917911641935</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -2834,13 +2825,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.9272351468773856</v>
+        <v>-0.9272314986000265</v>
       </c>
       <c r="C123">
-        <v>-0.4408760421022604</v>
+        <v>-0.4408895444931751</v>
       </c>
       <c r="D123">
-        <v>0.3325209846530757</v>
+        <v>0.3325010848885803</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -2854,13 +2845,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.5643260294816081</v>
+        <v>-0.5643215355065568</v>
       </c>
       <c r="C124">
-        <v>-0.5792741172926117</v>
+        <v>-0.5792877294822825</v>
       </c>
       <c r="D124">
-        <v>0.1209827769816043</v>
+        <v>0.1209625919463784</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -2874,13 +2865,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-1.04658367670486</v>
+        <v>-1.046579096066274</v>
       </c>
       <c r="C125">
-        <v>-0.2361838894835547</v>
+        <v>-0.2361980266191391</v>
       </c>
       <c r="D125">
-        <v>0.1775374973946331</v>
+        <v>0.1775176346844507</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -2894,13 +2885,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.200764599415149</v>
+        <v>0.2007682322725612</v>
       </c>
       <c r="C126">
-        <v>-0.8368317173156126</v>
+        <v>-0.8368448476534533</v>
       </c>
       <c r="D126">
-        <v>-0.3537996534157186</v>
+        <v>-0.3538185001257264</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -2914,13 +2905,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.9616886225142449</v>
+        <v>-0.9616864738144624</v>
       </c>
       <c r="C127">
-        <v>-0.3250032401395077</v>
+        <v>-0.3250165835171651</v>
       </c>
       <c r="D127">
-        <v>0.1568793953396046</v>
+        <v>0.1568612682802293</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -2934,13 +2925,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.1652186694184538</v>
+        <v>-0.1652139276290861</v>
       </c>
       <c r="C128">
-        <v>-0.4797959965165756</v>
+        <v>-0.4798096453144483</v>
       </c>
       <c r="D128">
-        <v>-0.3808049642943738</v>
+        <v>-0.3808246929238042</v>
       </c>
       <c r="E128">
         <v>4</v>
@@ -2954,13 +2945,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.08861292539400251</v>
+        <v>-0.08860851281839144</v>
       </c>
       <c r="C129">
-        <v>-0.6094912802978891</v>
+        <v>-0.6095050325084495</v>
       </c>
       <c r="D129">
-        <v>-0.3207305720532705</v>
+        <v>-0.3207506402432752</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -2974,13 +2965,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.9463059017993545</v>
+        <v>-0.9463026343206</v>
       </c>
       <c r="C130">
-        <v>-0.05029016000713926</v>
+        <v>-0.05030323118982172</v>
       </c>
       <c r="D130">
-        <v>-0.1417435490970225</v>
+        <v>-0.1417641779634364</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -2994,13 +2985,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.4873114591808873</v>
+        <v>-0.4873072006918673</v>
       </c>
       <c r="C131">
-        <v>-0.38654929968062</v>
+        <v>-0.3865625678580192</v>
       </c>
       <c r="D131">
-        <v>-0.1684268912622917</v>
+        <v>-0.1684470368395687</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -3014,13 +3005,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.3031528383401119</v>
+        <v>-0.3031483493522908</v>
       </c>
       <c r="C132">
-        <v>-0.5435875621210968</v>
+        <v>-0.5436009829597694</v>
       </c>
       <c r="D132">
-        <v>-0.244844517978956</v>
+        <v>-0.2448645725164924</v>
       </c>
       <c r="E132">
         <v>4</v>
@@ -3034,13 +3025,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1649939464997342</v>
+        <v>0.1649963023352213</v>
       </c>
       <c r="C133">
-        <v>0.309415959475527</v>
+        <v>0.309404877915863</v>
       </c>
       <c r="D133">
-        <v>-1.719193102224856</v>
+        <v>-1.719208729930465</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -3054,13 +3045,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.1263007844716714</v>
+        <v>-0.1262951165644044</v>
       </c>
       <c r="C134">
-        <v>-0.4757406482027413</v>
+        <v>-0.4757546242404158</v>
       </c>
       <c r="D134">
-        <v>-0.4985123343849807</v>
+        <v>-0.4985319816125968</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -3074,13 +3065,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.9360047957572115</v>
+        <v>-0.9360015366646826</v>
       </c>
       <c r="C135">
-        <v>-0.2088822892027564</v>
+        <v>-0.2088962261578593</v>
       </c>
       <c r="D135">
-        <v>0.05018583337727867</v>
+        <v>0.05016506976598811</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -3094,13 +3085,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-1.258002221175246</v>
+        <v>-1.257999544048673</v>
       </c>
       <c r="C136">
-        <v>0.06495257716089275</v>
+        <v>0.06493945992230094</v>
       </c>
       <c r="D136">
-        <v>0.02381707401013911</v>
+        <v>0.02379608137815503</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -3114,13 +3105,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-1.178919673246274</v>
+        <v>-1.178917119835847</v>
       </c>
       <c r="C137">
-        <v>-0.04543564440127479</v>
+        <v>-0.04544913237249881</v>
       </c>
       <c r="D137">
-        <v>0.1200347622827069</v>
+        <v>0.1200156179467773</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -3134,13 +3125,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.429251600234909</v>
+        <v>-0.4292464058010828</v>
       </c>
       <c r="C138">
-        <v>-0.4856519721141113</v>
+        <v>-0.4856663471814657</v>
       </c>
       <c r="D138">
-        <v>-0.1366922331169911</v>
+        <v>-0.136712995084318</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -3154,13 +3145,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-1.118281584414014</v>
+        <v>-1.118276455853513</v>
       </c>
       <c r="C139">
-        <v>-0.1973822949654649</v>
+        <v>-0.1973958488805743</v>
       </c>
       <c r="D139">
-        <v>0.2231572534748514</v>
+        <v>0.2231376572328068</v>
       </c>
       <c r="E139">
         <v>4</v>
@@ -3174,13 +3165,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.5856913423420923</v>
+        <v>-0.5856871263326735</v>
       </c>
       <c r="C140">
-        <v>-0.2164616351778449</v>
+        <v>-0.2164758659009532</v>
       </c>
       <c r="D140">
-        <v>-0.2372727647392778</v>
+        <v>-0.2372931263121971</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -3194,13 +3185,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-1.000975451776731</v>
+        <v>-1.000972879762488</v>
       </c>
       <c r="C141">
-        <v>-0.4697384085981173</v>
+        <v>-0.4697517761647841</v>
       </c>
       <c r="D141">
-        <v>0.4479714371099335</v>
+        <v>0.4479521525343384</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -3214,13 +3205,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.7524844583032748</v>
+        <v>-0.7524808516216458</v>
       </c>
       <c r="C142">
-        <v>-0.4894413132709106</v>
+        <v>-0.4894564859347912</v>
       </c>
       <c r="D142">
-        <v>0.1728232142130288</v>
+        <v>0.1728038501430951</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -3234,13 +3225,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.2440019310428863</v>
+        <v>0.244007829769589</v>
       </c>
       <c r="C143">
-        <v>-0.4007882980770509</v>
+        <v>-0.4008019577876751</v>
       </c>
       <c r="D143">
-        <v>-0.929725456371964</v>
+        <v>-0.9297459750846184</v>
       </c>
       <c r="E143">
         <v>4</v>
@@ -3254,13 +3245,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.5573254326634892</v>
+        <v>-0.557320834509432</v>
       </c>
       <c r="C144">
-        <v>-0.2673395330403184</v>
+        <v>-0.2673528689072185</v>
       </c>
       <c r="D144">
-        <v>-0.2211925672182733</v>
+        <v>-0.2212121825783986</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -3274,13 +3265,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.4566164745198507</v>
+        <v>-0.4566115757781833</v>
       </c>
       <c r="C145">
-        <v>-0.5685061038627208</v>
+        <v>-0.5685198291438793</v>
       </c>
       <c r="D145">
-        <v>0.03357065046906382</v>
+        <v>0.03355057320534449</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -3294,13 +3285,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.8474626552483744</v>
+        <v>-0.8474575016165501</v>
       </c>
       <c r="C146">
-        <v>-0.4975151520791881</v>
+        <v>-0.4975297008785502</v>
       </c>
       <c r="D146">
-        <v>0.3251726441129326</v>
+        <v>0.3251519815444004</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -3314,13 +3305,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.7872555920128187</v>
+        <v>-0.787251345497561</v>
       </c>
       <c r="C147">
-        <v>-0.4932515704376585</v>
+        <v>-0.4932656479521476</v>
       </c>
       <c r="D147">
-        <v>0.2379645016152137</v>
+        <v>0.2379459392005669</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -3334,13 +3325,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.542453234359654</v>
+        <v>-0.5424499589760476</v>
       </c>
       <c r="C148">
-        <v>-0.5885046194139052</v>
+        <v>-0.5885181501555343</v>
       </c>
       <c r="D148">
-        <v>0.1107592288851247</v>
+        <v>0.1107390024439772</v>
       </c>
       <c r="E148">
         <v>4</v>
@@ -3354,13 +3345,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.2119545055529138</v>
+        <v>-0.2119505192801755</v>
       </c>
       <c r="C149">
-        <v>-0.3211265667948349</v>
+        <v>-0.3211395327283572</v>
       </c>
       <c r="D149">
-        <v>-0.5262500088074025</v>
+        <v>-0.526269602558967</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -3374,13 +3365,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-1.706840856335202</v>
+        <v>-1.706836906848807</v>
       </c>
       <c r="C150">
-        <v>-0.06466945825234693</v>
+        <v>-0.06468285318017009</v>
       </c>
       <c r="D150">
-        <v>0.6365019459892762</v>
+        <v>0.636484123335459</v>
       </c>
       <c r="E150">
         <v>4</v>
@@ -3394,13 +3385,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.8845094507017548</v>
+        <v>-0.8845049375336458</v>
       </c>
       <c r="C151">
-        <v>-0.4654520605999336</v>
+        <v>-0.4654663013950276</v>
       </c>
       <c r="D151">
-        <v>0.2930751472098039</v>
+        <v>0.2930548180290873</v>
       </c>
       <c r="E151">
         <v>4</v>
@@ -3414,13 +3405,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-1.248146586619734</v>
+        <v>-1.248143141473167</v>
       </c>
       <c r="C152">
-        <v>-0.2016546045496552</v>
+        <v>-0.2016689921370735</v>
       </c>
       <c r="D152">
-        <v>0.4158911654811606</v>
+        <v>0.4158714802641472</v>
       </c>
       <c r="E152">
         <v>4</v>
@@ -3434,13 +3425,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.282480005850103</v>
+        <v>-1.282475745987617</v>
       </c>
       <c r="C153">
-        <v>-0.1440829760215795</v>
+        <v>-0.1440971690403186</v>
       </c>
       <c r="D153">
-        <v>0.3722391314598212</v>
+        <v>0.3722195576246428</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -3454,13 +3445,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.7389884490303782</v>
+        <v>-0.738985512450511</v>
       </c>
       <c r="C154">
-        <v>-0.5969751172889111</v>
+        <v>-0.5969885995678335</v>
       </c>
       <c r="D154">
-        <v>0.3240690748505513</v>
+        <v>0.3240489958034805</v>
       </c>
       <c r="E154">
         <v>4</v>
@@ -3474,13 +3465,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.4834792050278903</v>
+        <v>-0.4834744560429204</v>
       </c>
       <c r="C155">
-        <v>-0.3371588832791749</v>
+        <v>-0.33717264408526</v>
       </c>
       <c r="D155">
-        <v>-0.2573144928727895</v>
+        <v>-0.2573346806025825</v>
       </c>
       <c r="E155">
         <v>5</v>
@@ -3494,13 +3485,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.8741628353585698</v>
+        <v>-0.8741591432349463</v>
       </c>
       <c r="C156">
-        <v>-0.1925907018852067</v>
+        <v>-0.1926036824962093</v>
       </c>
       <c r="D156">
-        <v>0.0114955392784597</v>
+        <v>0.01147581081860327</v>
       </c>
       <c r="E156">
         <v>5</v>
@@ -3514,13 +3505,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.7612786052094606</v>
+        <v>-0.7612755050278517</v>
       </c>
       <c r="C157">
-        <v>-0.4989143830321296</v>
+        <v>-0.4989277218657717</v>
       </c>
       <c r="D157">
-        <v>0.1811974903792648</v>
+        <v>0.1811773123200147</v>
       </c>
       <c r="E157">
         <v>5</v>
@@ -3534,13 +3525,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.9305398961132139</v>
+        <v>-0.9305371442383452</v>
       </c>
       <c r="C158">
-        <v>-0.1932052271200463</v>
+        <v>-0.1932178784918418</v>
       </c>
       <c r="D158">
-        <v>-0.01381942133265635</v>
+        <v>-0.01383891184835506</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -3554,13 +3545,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.3939221272126069</v>
+        <v>-0.3939188261080424</v>
       </c>
       <c r="C159">
-        <v>-0.874133994116667</v>
+        <v>-0.874148656730974</v>
       </c>
       <c r="D159">
-        <v>0.2403587125535083</v>
+        <v>0.2403377261010289</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -3574,13 +3565,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.294436323393004</v>
+        <v>-0.2944327199163898</v>
       </c>
       <c r="C160">
-        <v>-0.7933844914584494</v>
+        <v>-0.7933991426176565</v>
       </c>
       <c r="D160">
-        <v>0.06084939260079869</v>
+        <v>0.06082919473217996</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -3594,13 +3585,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1538880784309942</v>
+        <v>0.1538925512842011</v>
       </c>
       <c r="C161">
-        <v>-0.8974192775495327</v>
+        <v>-0.897432832545404</v>
       </c>
       <c r="D161">
-        <v>-0.2960481435665188</v>
+        <v>-0.2960689756366925</v>
       </c>
       <c r="E161">
         <v>5</v>
@@ -3614,13 +3605,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.2281910270795323</v>
+        <v>-0.2281872134601613</v>
       </c>
       <c r="C162">
-        <v>-0.6312987007074511</v>
+        <v>-0.6313114176639842</v>
       </c>
       <c r="D162">
-        <v>-0.2006600438816597</v>
+        <v>-0.2006800034507454</v>
       </c>
       <c r="E162">
         <v>5</v>
@@ -3634,13 +3625,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.265608025325085</v>
+        <v>-1.265606226080214</v>
       </c>
       <c r="C163">
-        <v>-0.3673453989772471</v>
+        <v>-0.3673593420174059</v>
       </c>
       <c r="D163">
-        <v>0.5915985248527904</v>
+        <v>0.5915800407211811</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -3654,13 +3645,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.4550249966911782</v>
+        <v>-0.4550218566051648</v>
       </c>
       <c r="C164">
-        <v>-0.3845949751397192</v>
+        <v>-0.3846072958640339</v>
       </c>
       <c r="D164">
-        <v>-0.2561546333129432</v>
+        <v>-0.2561737012920835</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -3674,13 +3665,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.5936301086055995</v>
+        <v>-0.5936269935535922</v>
       </c>
       <c r="C165">
-        <v>-0.3011112455794374</v>
+        <v>-0.3011241337358245</v>
       </c>
       <c r="D165">
-        <v>-0.144703446278118</v>
+        <v>-0.1447234748856971</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -3694,13 +3685,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.4001306047179927</v>
+        <v>-0.4001262763823852</v>
       </c>
       <c r="C166">
-        <v>-0.6387308686886739</v>
+        <v>-0.6387439594763868</v>
       </c>
       <c r="D166">
-        <v>-0.0262619624061089</v>
+        <v>-0.02628204862438621</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -3714,13 +3705,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.3931903452614438</v>
+        <v>-0.3931858001072083</v>
       </c>
       <c r="C167">
-        <v>-0.5542858447825874</v>
+        <v>-0.5542997018361941</v>
       </c>
       <c r="D167">
-        <v>-0.135426273582294</v>
+        <v>-0.1354459192503763</v>
       </c>
       <c r="E167">
         <v>5</v>
@@ -3734,13 +3725,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-1.291991750709419</v>
+        <v>-1.29198910179954</v>
       </c>
       <c r="C168">
-        <v>-0.4518640823390193</v>
+        <v>-0.4518800642518143</v>
       </c>
       <c r="D168">
-        <v>0.6311862764493772</v>
+        <v>0.6311671052040904</v>
       </c>
       <c r="E168">
         <v>5</v>
@@ -3754,13 +3745,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-1.544680238956372</v>
+        <v>-1.544679008772384</v>
       </c>
       <c r="C169">
-        <v>-0.2469151161936687</v>
+        <v>-0.2469278364309598</v>
       </c>
       <c r="D169">
-        <v>0.693862599898877</v>
+        <v>0.693843051265417</v>
       </c>
       <c r="E169">
         <v>5</v>
@@ -3774,13 +3765,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.5009928154887884</v>
+        <v>-0.5009890038856146</v>
       </c>
       <c r="C170">
-        <v>-0.6018369283830263</v>
+        <v>-0.6018504494096857</v>
       </c>
       <c r="D170">
-        <v>0.01950018729985881</v>
+        <v>0.01948048194380214</v>
       </c>
       <c r="E170">
         <v>5</v>
@@ -3794,13 +3785,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.5097782899974388</v>
+        <v>-0.509774715545863</v>
       </c>
       <c r="C171">
-        <v>-0.5681924551658868</v>
+        <v>-0.568205279669687</v>
       </c>
       <c r="D171">
-        <v>-6.32113599261519e-05</v>
+        <v>-8.321942256461767e-05</v>
       </c>
       <c r="E171">
         <v>5</v>
@@ -3814,13 +3805,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.9318382401531751</v>
+        <v>-0.9318342580292875</v>
       </c>
       <c r="C172">
-        <v>-0.5614113396619107</v>
+        <v>-0.5614257232434121</v>
       </c>
       <c r="D172">
-        <v>0.3888228178554543</v>
+        <v>0.3888028566079433</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -3834,13 +3825,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.8284823635568126</v>
+        <v>-0.8284789571026251</v>
       </c>
       <c r="C173">
-        <v>-0.4944899033686607</v>
+        <v>-0.4945036654005857</v>
       </c>
       <c r="D173">
-        <v>0.1612460750134459</v>
+        <v>0.1612261602949316</v>
       </c>
       <c r="E173">
         <v>5</v>
@@ -3854,13 +3845,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.5275145813704659</v>
+        <v>-0.5275106268538037</v>
       </c>
       <c r="C174">
-        <v>-0.3874484398141944</v>
+        <v>-0.3874610177472632</v>
       </c>
       <c r="D174">
-        <v>-0.1355320253086871</v>
+        <v>-0.1355527361605715</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -3874,13 +3865,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-1.230445542469989</v>
+        <v>-1.230443052160309</v>
       </c>
       <c r="C175">
-        <v>-0.7463980540680852</v>
+        <v>-0.7464120727309571</v>
       </c>
       <c r="D175">
-        <v>0.8288474948699132</v>
+        <v>0.828827333199639</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -3894,13 +3885,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.156643192062257</v>
+        <v>-0.15663940883598</v>
       </c>
       <c r="C176">
-        <v>-0.8299887833228223</v>
+        <v>-0.8300036657951579</v>
       </c>
       <c r="D176">
-        <v>-0.1057659169702014</v>
+        <v>-0.1057858809064871</v>
       </c>
       <c r="E176">
         <v>5</v>
@@ -3914,13 +3905,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.083766449091212</v>
+        <v>-0.08376180607770567</v>
       </c>
       <c r="C177">
-        <v>-0.3392827514317688</v>
+        <v>-0.3392959117060408</v>
       </c>
       <c r="D177">
-        <v>-0.6537705844544524</v>
+        <v>-0.6537903992380856</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -3934,13 +3925,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3437377400347043</v>
+        <v>0.3437421303627697</v>
       </c>
       <c r="C178">
-        <v>-0.5874893072350382</v>
+        <v>-0.5875023688842163</v>
       </c>
       <c r="D178">
-        <v>-0.8260934973241454</v>
+        <v>-0.8261120214591966</v>
       </c>
       <c r="E178">
         <v>5</v>
@@ -3954,13 +3945,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.8864833151194438</v>
+        <v>-0.8864813445922768</v>
       </c>
       <c r="C179">
-        <v>-0.4791741348492834</v>
+        <v>-0.4791884921228136</v>
       </c>
       <c r="D179">
-        <v>0.2332208973763956</v>
+        <v>0.2332025445057986</v>
       </c>
       <c r="E179">
         <v>5</v>
@@ -3974,13 +3965,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.9852705652374425</v>
+        <v>-0.985267407937797</v>
       </c>
       <c r="C180">
-        <v>-0.1905447388482009</v>
+        <v>-0.1905582028693674</v>
       </c>
       <c r="D180">
-        <v>0.05747606131502336</v>
+        <v>0.05745678727560599</v>
       </c>
       <c r="E180">
         <v>6</v>
@@ -3994,13 +3985,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-1.03350041027086</v>
+        <v>-1.033496984610811</v>
       </c>
       <c r="C181">
-        <v>-0.5963001106731003</v>
+        <v>-0.596316544755813</v>
       </c>
       <c r="D181">
-        <v>0.5796504227378203</v>
+        <v>0.5796315701536998</v>
       </c>
       <c r="E181">
         <v>6</v>
@@ -4014,13 +4005,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-1.005545303075051</v>
+        <v>-1.005540976170303</v>
       </c>
       <c r="C182">
-        <v>-0.5460256690627767</v>
+        <v>-0.5460407495659467</v>
       </c>
       <c r="D182">
-        <v>0.4796017370618135</v>
+        <v>0.4795823744194507</v>
       </c>
       <c r="E182">
         <v>6</v>
@@ -4034,13 +4025,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.779500690930921</v>
+        <v>-0.7794958953217149</v>
       </c>
       <c r="C183">
-        <v>-0.4657769493117693</v>
+        <v>-0.4657913491040654</v>
       </c>
       <c r="D183">
-        <v>0.1910592315223099</v>
+        <v>0.1910399102895668</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -4054,13 +4045,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-1.891356417523872</v>
+        <v>-1.89135349861639</v>
       </c>
       <c r="C184">
-        <v>-0.0325740302671379</v>
+        <v>-0.03258725180745814</v>
       </c>
       <c r="D184">
-        <v>0.7900857454514387</v>
+        <v>0.7900677906423534</v>
       </c>
       <c r="E184">
         <v>6</v>
@@ -4074,13 +4065,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-1.874873804051948</v>
+        <v>-1.874870415767693</v>
       </c>
       <c r="C185">
-        <v>0.08857554728775424</v>
+        <v>0.08856051279832716</v>
       </c>
       <c r="D185">
-        <v>0.6315195435613128</v>
+        <v>0.6315017518152075</v>
       </c>
       <c r="E185">
         <v>6</v>
@@ -4094,13 +4085,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.858866138861996</v>
+        <v>-0.858861560884031</v>
       </c>
       <c r="C186">
-        <v>-0.5865789560006829</v>
+        <v>-0.5865936390079411</v>
       </c>
       <c r="D186">
-        <v>0.3941691331055948</v>
+        <v>0.3941498053183614</v>
       </c>
       <c r="E186">
         <v>6</v>
@@ -4114,13 +4105,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-1.212095257710808</v>
+        <v>-1.2120911183592</v>
       </c>
       <c r="C187">
-        <v>-0.4091715473429834</v>
+        <v>-0.4091867238632825</v>
       </c>
       <c r="D187">
-        <v>0.5415388476163279</v>
+        <v>0.5415198458141517</v>
       </c>
       <c r="E187">
         <v>6</v>
@@ -4134,13 +4125,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.7014042884089662</v>
+        <v>-0.7013997797001394</v>
       </c>
       <c r="C188">
-        <v>-0.560985058052363</v>
+        <v>-0.5609997893907048</v>
       </c>
       <c r="D188">
-        <v>0.2342961135852213</v>
+        <v>0.2342770016307063</v>
       </c>
       <c r="E188">
         <v>6</v>
@@ -4154,13 +4145,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.6838350468451362</v>
+        <v>-0.683830639025219</v>
       </c>
       <c r="C189">
-        <v>-0.544334627224077</v>
+        <v>-0.5443495182262306</v>
       </c>
       <c r="D189">
-        <v>0.1644235579019759</v>
+        <v>0.1644048564040954</v>
       </c>
       <c r="E189">
         <v>6</v>
@@ -4174,13 +4165,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.3804075446378631</v>
+        <v>-0.3804019751269976</v>
       </c>
       <c r="C190">
-        <v>-0.6764699993782637</v>
+        <v>-0.6764850828933335</v>
       </c>
       <c r="D190">
-        <v>-0.03160869987145576</v>
+        <v>-0.03162801592745201</v>
       </c>
       <c r="E190">
         <v>6</v>
@@ -4194,13 +4185,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.8770054935201539</v>
+        <v>-0.8770007918391733</v>
       </c>
       <c r="C191">
-        <v>-0.7528543272435702</v>
+        <v>-0.7528696504288279</v>
       </c>
       <c r="D191">
-        <v>0.5602654403739864</v>
+        <v>0.5602462190690169</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -4214,13 +4205,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-1.041220458669399</v>
+        <v>-1.041215233307865</v>
       </c>
       <c r="C192">
-        <v>-0.5999866262087181</v>
+        <v>-0.6000006689437454</v>
       </c>
       <c r="D192">
-        <v>0.511303928462147</v>
+        <v>0.5112856477785392</v>
       </c>
       <c r="E192">
         <v>6</v>
@@ -4234,13 +4225,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.8203194097982573</v>
+        <v>-0.8203149405984986</v>
       </c>
       <c r="C193">
-        <v>-0.4972772055811674</v>
+        <v>-0.4972921039523366</v>
       </c>
       <c r="D193">
-        <v>0.2570947876651259</v>
+        <v>0.2570750366014396</v>
       </c>
       <c r="E193">
         <v>6</v>
@@ -4254,13 +4245,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-1.543103364797255</v>
+        <v>-1.543099625834652</v>
       </c>
       <c r="C194">
-        <v>-0.5535118621287807</v>
+        <v>-0.5535260561138122</v>
       </c>
       <c r="D194">
-        <v>0.9715988491399434</v>
+        <v>0.9715799499769244</v>
       </c>
       <c r="E194">
         <v>6</v>
@@ -4274,13 +4265,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.9795669626192158</v>
+        <v>-0.9795628927870712</v>
       </c>
       <c r="C195">
-        <v>-0.3321260085105314</v>
+        <v>-0.3321402264186721</v>
       </c>
       <c r="D195">
-        <v>0.1917273604369307</v>
+        <v>0.1917087499790795</v>
       </c>
       <c r="E195">
         <v>6</v>
@@ -4294,13 +4285,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.6534737132508727</v>
+        <v>-0.653468815688547</v>
       </c>
       <c r="C196">
-        <v>-0.5839891556845695</v>
+        <v>-0.5840042309603728</v>
       </c>
       <c r="D196">
-        <v>0.1662797902219766</v>
+        <v>0.1662608460971584</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -4314,13 +4305,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-1.043531170160101</v>
+        <v>-1.043527443819031</v>
       </c>
       <c r="C197">
-        <v>-0.5212711307014539</v>
+        <v>-0.5212857346944177</v>
       </c>
       <c r="D197">
-        <v>0.5015459380576166</v>
+        <v>0.501526707373436</v>
       </c>
       <c r="E197">
         <v>6</v>
@@ -4334,13 +4325,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.5172141675565998</v>
+        <v>-0.5172104940255968</v>
       </c>
       <c r="C198">
-        <v>-0.6736367807626251</v>
+        <v>-0.673650600743857</v>
       </c>
       <c r="D198">
-        <v>0.1247605446472106</v>
+        <v>0.1247422849446811</v>
       </c>
       <c r="E198">
         <v>6</v>
@@ -4354,13 +4345,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.786108886286068</v>
+        <v>0.7861154782917529</v>
       </c>
       <c r="C199">
-        <v>-0.3920322068243532</v>
+        <v>-0.3920452219856829</v>
       </c>
       <c r="D199">
-        <v>-1.566813342973763</v>
+        <v>-1.566831188399173</v>
       </c>
       <c r="E199">
         <v>6</v>
@@ -4374,13 +4365,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.9405214158878392</v>
+        <v>-0.9405169231910846</v>
       </c>
       <c r="C200">
-        <v>-0.5213903005573439</v>
+        <v>-0.5214058512778981</v>
       </c>
       <c r="D200">
-        <v>0.3707876532373886</v>
+        <v>0.3707689587245051</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -4394,13 +4385,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.8536719202219858</v>
+        <v>-0.8536669450808904</v>
       </c>
       <c r="C201">
-        <v>-0.3950532013551029</v>
+        <v>-0.3950675739272312</v>
       </c>
       <c r="D201">
-        <v>0.1980786964660228</v>
+        <v>0.1980597658488268</v>
       </c>
       <c r="E201">
         <v>6</v>
@@ -4414,13 +4405,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-1.213018454110939</v>
+        <v>-1.213015506760269</v>
       </c>
       <c r="C202">
-        <v>-0.2914712434086587</v>
+        <v>-0.2914852053545866</v>
       </c>
       <c r="D202">
-        <v>0.4246949843721635</v>
+        <v>0.4246768860948018</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -4434,13 +4425,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.7007553650221675</v>
+        <v>-0.7007518730955566</v>
       </c>
       <c r="C203">
-        <v>-0.7033875219715346</v>
+        <v>-0.7034028698596446</v>
       </c>
       <c r="D203">
-        <v>0.366912692977531</v>
+        <v>0.3668939024465301</v>
       </c>
       <c r="E203">
         <v>6</v>
@@ -4454,13 +4445,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.04942364867147572</v>
+        <v>-0.04942056367958125</v>
       </c>
       <c r="C204">
-        <v>-0.1882653095863297</v>
+        <v>-0.1882770821445271</v>
       </c>
       <c r="D204">
-        <v>-0.8292806881665806</v>
+        <v>-0.82929941835525</v>
       </c>
       <c r="E204">
         <v>7</v>
@@ -4474,13 +4465,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.7838099952728016</v>
+        <v>-0.7838072323959306</v>
       </c>
       <c r="C205">
-        <v>-0.03054285272580637</v>
+        <v>-0.030554345848124</v>
       </c>
       <c r="D205">
-        <v>-0.3408974712214834</v>
+        <v>-0.3409151018733374</v>
       </c>
       <c r="E205">
         <v>7</v>
@@ -4494,13 +4485,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.680033444609088</v>
+        <v>-0.6800297142851706</v>
       </c>
       <c r="C206">
-        <v>-0.2903493626713666</v>
+        <v>-0.2903621180995472</v>
       </c>
       <c r="D206">
-        <v>-0.1456404540820664</v>
+        <v>-0.1456596100052727</v>
       </c>
       <c r="E206">
         <v>7</v>
@@ -4514,13 +4505,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.6119097780463586</v>
+        <v>-0.6119063677286928</v>
       </c>
       <c r="C207">
-        <v>-0.3253838230972427</v>
+        <v>-0.3253972426150822</v>
       </c>
       <c r="D207">
-        <v>-0.1680730649664754</v>
+        <v>-0.1680905661671261</v>
       </c>
       <c r="E207">
         <v>7</v>
@@ -4534,13 +4525,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.6956154875729228</v>
+        <v>-0.695611336435078</v>
       </c>
       <c r="C208">
-        <v>-0.1741249141216643</v>
+        <v>-0.1741378630067775</v>
       </c>
       <c r="D208">
-        <v>-0.2609868762437395</v>
+        <v>-0.2610064971446502</v>
       </c>
       <c r="E208">
         <v>7</v>
@@ -4554,13 +4545,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.2800153583573981</v>
+        <v>-0.2800123867343849</v>
       </c>
       <c r="C209">
-        <v>-0.2111939516692147</v>
+        <v>-0.2112063395914819</v>
       </c>
       <c r="D209">
-        <v>-0.5716513021329468</v>
+        <v>-0.571670069462912</v>
       </c>
       <c r="E209">
         <v>7</v>
@@ -4574,13 +4565,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.4509544485711835</v>
+        <v>-0.45095079172629</v>
       </c>
       <c r="C210">
-        <v>-0.2328592553738406</v>
+        <v>-0.2328720392064716</v>
       </c>
       <c r="D210">
-        <v>-0.356793535390789</v>
+        <v>-0.356812263423655</v>
       </c>
       <c r="E210">
         <v>7</v>
@@ -4594,13 +4585,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.3513284575471474</v>
+        <v>-0.3513250013253286</v>
       </c>
       <c r="C211">
-        <v>-0.2466048149273505</v>
+        <v>-0.2466179015425862</v>
       </c>
       <c r="D211">
-        <v>-0.4455807717150675</v>
+        <v>-0.4455993644765197</v>
       </c>
       <c r="E211">
         <v>7</v>
@@ -4614,13 +4605,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.2657909226259756</v>
+        <v>-0.2657871935361314</v>
       </c>
       <c r="C212">
-        <v>-0.1793100822369985</v>
+        <v>-0.1793233444975245</v>
       </c>
       <c r="D212">
-        <v>-0.6377621458389109</v>
+        <v>-0.6377813285757148</v>
       </c>
       <c r="E212">
         <v>7</v>
@@ -4634,13 +4625,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.08661949114638579</v>
+        <v>0.08662336805475022</v>
       </c>
       <c r="C213">
-        <v>-0.448468312501759</v>
+        <v>-0.4484822633977554</v>
       </c>
       <c r="D213">
-        <v>-0.6796120544014963</v>
+        <v>-0.6796320874926278</v>
       </c>
       <c r="E213">
         <v>8</v>
@@ -4654,13 +4645,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.03733427814610166</v>
+        <v>-0.03732986858214216</v>
       </c>
       <c r="C214">
-        <v>-0.5234807142970772</v>
+        <v>-0.5234946401410923</v>
       </c>
       <c r="D214">
-        <v>-0.4722712949166299</v>
+        <v>-0.4722907396043137</v>
       </c>
       <c r="E214">
         <v>8</v>
@@ -4674,13 +4665,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.36649376462429</v>
+        <v>-0.3664897847668604</v>
       </c>
       <c r="C215">
-        <v>-0.3579307940789186</v>
+        <v>-0.3579449158248137</v>
       </c>
       <c r="D215">
-        <v>-0.3269107661440434</v>
+        <v>-0.3269297159743376</v>
       </c>
       <c r="E215">
         <v>8</v>
@@ -4694,13 +4685,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.09205875527381344</v>
+        <v>0.09206187528359336</v>
       </c>
       <c r="C216">
-        <v>-0.4976966467469841</v>
+        <v>-0.4977104810767923</v>
       </c>
       <c r="D216">
-        <v>-0.631689620474593</v>
+        <v>-0.6317087351930855</v>
       </c>
       <c r="E216">
         <v>8</v>
@@ -4714,13 +4705,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.3927584537985555</v>
+        <v>-0.3927559343995938</v>
       </c>
       <c r="C217">
-        <v>-0.5792356554725568</v>
+        <v>-0.5792496426272955</v>
       </c>
       <c r="D217">
-        <v>-0.05022039322185212</v>
+        <v>-0.05023963641943907</v>
       </c>
       <c r="E217">
         <v>8</v>
@@ -4734,13 +4725,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.08588597766398777</v>
+        <v>0.08588987757096919</v>
       </c>
       <c r="C218">
-        <v>-0.2170565002487995</v>
+        <v>-0.2170701401307019</v>
       </c>
       <c r="D218">
-        <v>-0.922850792405736</v>
+        <v>-0.9228700152872643</v>
       </c>
       <c r="E218">
         <v>8</v>
@@ -4754,13 +4745,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3035894475367683</v>
+        <v>0.3035924534272852</v>
       </c>
       <c r="C219">
-        <v>-0.3574359643797479</v>
+        <v>-0.3574504920684672</v>
       </c>
       <c r="D219">
-        <v>-0.97180965352071</v>
+        <v>-0.9718288465386413</v>
       </c>
       <c r="E219">
         <v>8</v>
@@ -4774,13 +4765,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.2720309611961658</v>
+        <v>0.2720341043862325</v>
       </c>
       <c r="C220">
-        <v>-0.6079804641205477</v>
+        <v>-0.6079943327798052</v>
       </c>
       <c r="D220">
-        <v>-0.6884614773608289</v>
+        <v>-0.688480696263166</v>
       </c>
       <c r="E220">
         <v>8</v>
@@ -4794,13 +4785,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.1374542861194294</v>
+        <v>-0.1374516613401701</v>
       </c>
       <c r="C221">
-        <v>-0.5511538214491394</v>
+        <v>-0.5511680874278257</v>
       </c>
       <c r="D221">
-        <v>-0.3618003090555524</v>
+        <v>-0.3618192532586735</v>
       </c>
       <c r="E221">
         <v>8</v>
@@ -4814,13 +4805,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.1396461702732759</v>
+        <v>-0.1396434208773551</v>
       </c>
       <c r="C222">
-        <v>-0.2221625874533821</v>
+        <v>-0.2221774728518561</v>
       </c>
       <c r="D222">
-        <v>-0.6734109871402281</v>
+        <v>-0.6734312204477961</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -4834,13 +4825,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1650611906077882</v>
+        <v>0.1650639162123884</v>
       </c>
       <c r="C223">
-        <v>-0.3879983437612449</v>
+        <v>-0.3880114166115018</v>
       </c>
       <c r="D223">
-        <v>-0.8128112644124941</v>
+        <v>-0.8128303476457224</v>
       </c>
       <c r="E223">
         <v>8</v>
@@ -4854,13 +4845,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1805814896946421</v>
+        <v>0.1805844645002106</v>
       </c>
       <c r="C224">
-        <v>-0.3032002862246653</v>
+        <v>-0.3032138971727655</v>
       </c>
       <c r="D224">
-        <v>-0.9099789478930042</v>
+        <v>-0.9099980460194634</v>
       </c>
       <c r="E224">
         <v>8</v>
@@ -4874,13 +4865,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1943235066032388</v>
+        <v>0.1943273272833293</v>
       </c>
       <c r="C225">
-        <v>-0.5352843628784665</v>
+        <v>-0.5352983190766774</v>
       </c>
       <c r="D225">
-        <v>-0.6362969043633759</v>
+        <v>-0.6363157369288226</v>
       </c>
       <c r="E225">
         <v>8</v>
@@ -4894,13 +4885,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.1406706372751696</v>
+        <v>-0.1406665205630366</v>
       </c>
       <c r="C226">
-        <v>-0.3898637295087023</v>
+        <v>-0.38987734795996</v>
       </c>
       <c r="D226">
-        <v>-0.5257127663876453</v>
+        <v>-0.5257309349504102</v>
       </c>
       <c r="E226">
         <v>8</v>
@@ -4914,13 +4905,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.113830620934626</v>
+        <v>-0.1138272417179458</v>
       </c>
       <c r="C227">
-        <v>-0.1389967052649488</v>
+        <v>-0.1390107030468043</v>
       </c>
       <c r="D227">
-        <v>-0.8140975138690247</v>
+        <v>-0.8141163851076105</v>
       </c>
       <c r="E227">
         <v>8</v>
@@ -4934,13 +4925,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.2373378058932473</v>
+        <v>0.237341002982018</v>
       </c>
       <c r="C228">
-        <v>-0.4739599824460979</v>
+        <v>-0.473973342794622</v>
       </c>
       <c r="D228">
-        <v>-0.7758572896059666</v>
+        <v>-0.775876957669263</v>
       </c>
       <c r="E228">
         <v>8</v>
@@ -4954,13 +4945,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.303731202221782</v>
+        <v>0.3037334333565935</v>
       </c>
       <c r="C229">
-        <v>-0.4554607243955792</v>
+        <v>-0.4554730410977704</v>
       </c>
       <c r="D229">
-        <v>-0.8737969307342062</v>
+        <v>-0.8738155600021831</v>
       </c>
       <c r="E229">
         <v>8</v>
@@ -4974,13 +4965,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.2761368444265992</v>
+        <v>-0.2761334217082383</v>
       </c>
       <c r="C230">
-        <v>-0.3363786556820003</v>
+        <v>-0.3363930334528028</v>
       </c>
       <c r="D230">
-        <v>-0.4541766468477924</v>
+        <v>-0.4541962426493913</v>
       </c>
       <c r="E230">
         <v>8</v>
@@ -4994,13 +4985,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.3312071661995164</v>
+        <v>0.3312075654464741</v>
       </c>
       <c r="C231">
-        <v>-0.7020365297974458</v>
+        <v>-0.7020495285692532</v>
       </c>
       <c r="D231">
-        <v>-0.7038539937369663</v>
+        <v>-0.7038716516910586</v>
       </c>
       <c r="E231">
         <v>8</v>
@@ -5014,13 +5005,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1003255387951215</v>
+        <v>0.1003293543083584</v>
       </c>
       <c r="C232">
-        <v>-0.4382539635109082</v>
+        <v>-0.4382672071242606</v>
       </c>
       <c r="D232">
-        <v>-0.703427099531992</v>
+        <v>-0.703445413691882</v>
       </c>
       <c r="E232">
         <v>8</v>
@@ -5034,13 +5025,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.0475583938101857</v>
+        <v>0.04756121782174799</v>
       </c>
       <c r="C233">
-        <v>-0.1337522377000012</v>
+        <v>-0.1337657366950155</v>
       </c>
       <c r="D233">
-        <v>-0.9574895404883299</v>
+        <v>-0.957507934029961</v>
       </c>
       <c r="E233">
         <v>8</v>
@@ -5054,13 +5045,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.07942688319626573</v>
+        <v>0.07942999463622424</v>
       </c>
       <c r="C234">
-        <v>-0.3714867685222373</v>
+        <v>-0.3714996653809383</v>
       </c>
       <c r="D234">
-        <v>-0.7472083763906257</v>
+        <v>-0.7472269428606657</v>
       </c>
       <c r="E234">
         <v>8</v>
@@ -5074,13 +5065,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4141982510032807</v>
+        <v>0.4142012898362694</v>
       </c>
       <c r="C235">
-        <v>-0.7437786488062714</v>
+        <v>-0.7437915153793435</v>
       </c>
       <c r="D235">
-        <v>-0.6338137415393843</v>
+        <v>-0.6338323305761067</v>
       </c>
       <c r="E235">
         <v>8</v>
@@ -5094,13 +5085,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1548843331833477</v>
+        <v>0.1548871058250785</v>
       </c>
       <c r="C236">
-        <v>-0.4184014503581206</v>
+        <v>-0.4184142480632014</v>
       </c>
       <c r="D236">
-        <v>-0.7910617353238507</v>
+        <v>-0.7910805882482008</v>
       </c>
       <c r="E236">
         <v>8</v>
@@ -5114,13 +5105,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.3283225379350337</v>
+        <v>-0.3283194149730754</v>
       </c>
       <c r="C237">
-        <v>-0.3157407183518568</v>
+        <v>-0.3157543657681323</v>
       </c>
       <c r="D237">
-        <v>-0.4171767043155841</v>
+        <v>-0.4171958992177598</v>
       </c>
       <c r="E237">
         <v>8</v>
@@ -5134,13 +5125,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.253167911210282</v>
+        <v>-0.2531646082491755</v>
       </c>
       <c r="C238">
-        <v>-0.5532682890729705</v>
+        <v>-0.5532841588670205</v>
       </c>
       <c r="D238">
-        <v>-0.2368936140896303</v>
+        <v>-0.2369118499307021</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -5154,13 +5145,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.05750144515260572</v>
+        <v>-0.05749871087800507</v>
       </c>
       <c r="C239">
-        <v>-0.2866285133578115</v>
+        <v>-0.2866415520639832</v>
       </c>
       <c r="D239">
-        <v>-0.7018456492640015</v>
+        <v>-0.7018648370038585</v>
       </c>
       <c r="E239">
         <v>8</v>
@@ -5174,13 +5165,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.2749232760130583</v>
+        <v>-0.2749207477200515</v>
       </c>
       <c r="C240">
-        <v>-0.2481252014863284</v>
+        <v>-0.248137758791275</v>
       </c>
       <c r="D240">
-        <v>-0.568957752300707</v>
+        <v>-0.56897539128302</v>
       </c>
       <c r="E240">
         <v>8</v>
@@ -5194,13 +5185,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.8852283218085624</v>
+        <v>-0.8852243461040523</v>
       </c>
       <c r="C241">
-        <v>0.24639531297262</v>
+        <v>0.2463821556227734</v>
       </c>
       <c r="D241">
-        <v>-0.4911565513150833</v>
+        <v>-0.4911763039979657</v>
       </c>
       <c r="E241">
         <v>9</v>
@@ -5214,13 +5205,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.3611743095072467</v>
+        <v>-0.3611701538753486</v>
       </c>
       <c r="C242">
-        <v>0.04760097663778412</v>
+        <v>0.0475872852577407</v>
       </c>
       <c r="D242">
-        <v>-0.6991886883327594</v>
+        <v>-0.6992082076639847</v>
       </c>
       <c r="E242">
         <v>9</v>
@@ -5234,13 +5225,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.901672601342689</v>
+        <v>-0.9016679392736406</v>
       </c>
       <c r="C243">
-        <v>0.1003343362369755</v>
+        <v>0.1003206437140347</v>
       </c>
       <c r="D243">
-        <v>-0.2839348812076687</v>
+        <v>-0.2839540924301753</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -5254,13 +5245,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.9811464612893488</v>
+        <v>-0.9811429423972322</v>
       </c>
       <c r="C244">
-        <v>-0.1869953494471256</v>
+        <v>-0.1870099133941492</v>
       </c>
       <c r="D244">
-        <v>0.1385013806388873</v>
+        <v>0.1384818399568255</v>
       </c>
       <c r="E244">
         <v>9</v>
@@ -5274,13 +5265,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-1.126043143498915</v>
+        <v>-1.126038777938717</v>
       </c>
       <c r="C245">
-        <v>-0.2663481665723689</v>
+        <v>-0.2663628001631353</v>
       </c>
       <c r="D245">
-        <v>0.3006642138067233</v>
+        <v>0.3006434069195527</v>
       </c>
       <c r="E245">
         <v>9</v>
@@ -5294,13 +5285,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-1.611869486249661</v>
+        <v>-1.611865552218293</v>
       </c>
       <c r="C246">
-        <v>0.09000618641078212</v>
+        <v>0.08999163762032225</v>
       </c>
       <c r="D246">
-        <v>0.4433169761669338</v>
+        <v>0.4432967081749335</v>
       </c>
       <c r="E246">
         <v>9</v>
@@ -5314,13 +5305,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.9960116912299641</v>
+        <v>-0.9960072189371616</v>
       </c>
       <c r="C247">
-        <v>-0.7193270299501526</v>
+        <v>-0.719341425117408</v>
       </c>
       <c r="D247">
-        <v>0.6432397016039575</v>
+        <v>0.6432204093157092</v>
       </c>
       <c r="E247">
         <v>9</v>
@@ -5334,13 +5325,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.9197996521583978</v>
+        <v>-0.9197956477477609</v>
       </c>
       <c r="C248">
-        <v>0.1926753173396243</v>
+        <v>0.1926615734151439</v>
       </c>
       <c r="D248">
-        <v>-0.3802751077077813</v>
+        <v>-0.3802953368851174</v>
       </c>
       <c r="E248">
         <v>9</v>
@@ -5354,13 +5345,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.905826892074947</v>
+        <v>-0.9058236798994319</v>
       </c>
       <c r="C249">
-        <v>0.2819870550330468</v>
+        <v>0.2819738677255814</v>
       </c>
       <c r="D249">
-        <v>-0.5020245882921817</v>
+        <v>-0.5020425883521038</v>
       </c>
       <c r="E249">
         <v>9</v>
@@ -5374,13 +5365,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-1.308212497319506</v>
+        <v>-1.308209319894583</v>
       </c>
       <c r="C250">
-        <v>-0.4566941324884274</v>
+        <v>-0.4567089676559893</v>
       </c>
       <c r="D250">
-        <v>0.6832070442771094</v>
+        <v>0.6831871285422371</v>
       </c>
       <c r="E250">
         <v>9</v>
@@ -5394,13 +5385,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-1.585859296839174</v>
+        <v>-1.585855957009165</v>
       </c>
       <c r="C251">
-        <v>0.1011768962757056</v>
+        <v>0.1011627345674122</v>
       </c>
       <c r="D251">
-        <v>0.4178172535053224</v>
+        <v>0.4177979110178267</v>
       </c>
       <c r="E251">
         <v>9</v>
@@ -5414,13 +5405,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.9235062314382894</v>
+        <v>-0.9235023926480832</v>
       </c>
       <c r="C252">
-        <v>-0.0538291410938303</v>
+        <v>-0.05384234529474885</v>
       </c>
       <c r="D252">
-        <v>-0.0703031694013021</v>
+        <v>-0.07032213216650152</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -5434,13 +5425,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.6389340354985124</v>
+        <v>-0.6389290853573204</v>
       </c>
       <c r="C253">
-        <v>-0.09692766370872408</v>
+        <v>-0.09694112854507908</v>
       </c>
       <c r="D253">
-        <v>-0.2816723897091726</v>
+        <v>-0.2816914474117758</v>
       </c>
       <c r="E253">
         <v>9</v>
@@ -5454,13 +5445,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.6733750688945752</v>
+        <v>-0.6733697955924066</v>
       </c>
       <c r="C254">
-        <v>-0.06773882630505668</v>
+        <v>-0.06775484285444622</v>
       </c>
       <c r="D254">
-        <v>-0.3276567558240471</v>
+        <v>-0.3276763139300143</v>
       </c>
       <c r="E254">
         <v>9</v>
@@ -5474,13 +5465,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-1.199721898489917</v>
+        <v>-1.199718416939957</v>
       </c>
       <c r="C255">
-        <v>0.1957669537677943</v>
+        <v>0.1957536056265387</v>
       </c>
       <c r="D255">
-        <v>-0.1140360514888279</v>
+        <v>-0.1140544293686547</v>
       </c>
       <c r="E255">
         <v>9</v>
@@ -5494,13 +5485,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.7966739477166223</v>
+        <v>-0.7966690890830349</v>
       </c>
       <c r="C256">
-        <v>-0.06043540597989383</v>
+        <v>-0.06044921776712175</v>
       </c>
       <c r="D256">
-        <v>-0.1360443777778986</v>
+        <v>-0.136063792796415</v>
       </c>
       <c r="E256">
         <v>9</v>
@@ -5514,13 +5505,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.5356203281317373</v>
+        <v>-0.5356175286880487</v>
       </c>
       <c r="C257">
-        <v>0.1240140348646308</v>
+        <v>0.12400036326029</v>
       </c>
       <c r="D257">
-        <v>-0.6413633984899549</v>
+        <v>-0.6413826818576616</v>
       </c>
       <c r="E257">
         <v>9</v>
@@ -5534,13 +5525,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.3898111141475522</v>
+        <v>-0.3898084621843881</v>
       </c>
       <c r="C258">
-        <v>0.07905467378390318</v>
+        <v>0.07904076471882182</v>
       </c>
       <c r="D258">
-        <v>-0.7732464232862937</v>
+        <v>-0.773264035094634</v>
       </c>
       <c r="E258">
         <v>9</v>
@@ -5554,13 +5545,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-1.025192258115657</v>
+        <v>-1.025188724795432</v>
       </c>
       <c r="C259">
-        <v>0.03044834232055277</v>
+        <v>0.03043569789403472</v>
       </c>
       <c r="D259">
-        <v>-0.09303330335173632</v>
+        <v>-0.09305244937330404</v>
       </c>
       <c r="E259">
         <v>9</v>
@@ -5574,13 +5565,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.6979327965914035</v>
+        <v>-0.6979284804166337</v>
       </c>
       <c r="C260">
-        <v>0.1677863407723229</v>
+        <v>0.1677723962620395</v>
       </c>
       <c r="D260">
-        <v>-0.5353891563825519</v>
+        <v>-0.5354095409832869</v>
       </c>
       <c r="E260">
         <v>9</v>
@@ -5594,13 +5585,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.7095683262797859</v>
+        <v>-0.7095655340040965</v>
       </c>
       <c r="C261">
-        <v>0.009244935292342826</v>
+        <v>0.009231380598324845</v>
       </c>
       <c r="D261">
-        <v>-0.3342471271725702</v>
+        <v>-0.3342664663355299</v>
       </c>
       <c r="E261">
         <v>9</v>
@@ -5614,13 +5605,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.4575486352993436</v>
+        <v>-0.4575467144949116</v>
       </c>
       <c r="C262">
-        <v>0.2416626426765456</v>
+        <v>0.2416494728156013</v>
       </c>
       <c r="D262">
-        <v>-0.8880824501241166</v>
+        <v>-0.8881003124356598</v>
       </c>
       <c r="E262">
         <v>9</v>
@@ -5634,13 +5625,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-1.957339691050615</v>
+        <v>-1.957336963439191</v>
       </c>
       <c r="C263">
-        <v>0.3239841810858834</v>
+        <v>0.3239707860051286</v>
       </c>
       <c r="D263">
-        <v>0.4737710499191761</v>
+        <v>0.4737504604283176</v>
       </c>
       <c r="E263">
         <v>9</v>
@@ -5654,13 +5645,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.8256554239234201</v>
+        <v>-0.8256516055850364</v>
       </c>
       <c r="C264">
-        <v>-0.07420395567128124</v>
+        <v>-0.07421738038288461</v>
       </c>
       <c r="D264">
-        <v>-0.1760815484928435</v>
+        <v>-0.1761010785818093</v>
       </c>
       <c r="E264">
         <v>9</v>
@@ -5674,13 +5665,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.8623825578226693</v>
+        <v>-0.8623774582806309</v>
       </c>
       <c r="C265">
-        <v>-0.2701403467233678</v>
+        <v>-0.2701559263107872</v>
       </c>
       <c r="D265">
-        <v>0.03742791937756662</v>
+        <v>0.0374066991721278</v>
       </c>
       <c r="E265">
         <v>9</v>
@@ -5694,13 +5685,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.8058332106319871</v>
+        <v>-0.8058281530417792</v>
       </c>
       <c r="C266">
-        <v>-0.5727252115956463</v>
+        <v>-0.5727401444606446</v>
       </c>
       <c r="D266">
-        <v>0.3250597310202559</v>
+        <v>0.3250399690623822</v>
       </c>
       <c r="E266">
         <v>9</v>
@@ -5714,13 +5705,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-1.701698587291888</v>
+        <v>-1.701693536006692</v>
       </c>
       <c r="C267">
-        <v>0.02876258478960986</v>
+        <v>0.02874759785919018</v>
       </c>
       <c r="D267">
-        <v>0.495756115347326</v>
+        <v>0.4957348860958422</v>
       </c>
       <c r="E267">
         <v>9</v>
@@ -5734,13 +5725,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-1.762400929030454</v>
+        <v>-1.762396890361261</v>
       </c>
       <c r="C268">
-        <v>-0.09962544004296792</v>
+        <v>-0.09963999429682235</v>
       </c>
       <c r="D268">
-        <v>0.7454870597417904</v>
+        <v>0.7454665400518192</v>
       </c>
       <c r="E268">
         <v>9</v>
@@ -5754,13 +5745,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.8417436611352654</v>
+        <v>-0.8417389040385244</v>
       </c>
       <c r="C269">
-        <v>0.1442156578570349</v>
+        <v>0.1442021561291804</v>
       </c>
       <c r="D269">
-        <v>-0.3683114748583987</v>
+        <v>-0.3683307357478749</v>
       </c>
       <c r="E269">
         <v>9</v>
@@ -5774,13 +5765,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.8249199223358821</v>
+        <v>-0.8249149818773491</v>
       </c>
       <c r="C270">
-        <v>-0.3268111890341348</v>
+        <v>-0.3268254701160878</v>
       </c>
       <c r="D270">
-        <v>0.06864259126773731</v>
+        <v>0.06862271006380016</v>
       </c>
       <c r="E270">
         <v>9</v>
@@ -5794,13 +5785,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.8120076859149229</v>
+        <v>-0.8120026811766211</v>
       </c>
       <c r="C271">
-        <v>0.01684265461925877</v>
+        <v>0.01682850211520709</v>
       </c>
       <c r="D271">
-        <v>-0.307640809737896</v>
+        <v>-0.3076614612265394</v>
       </c>
       <c r="E271">
         <v>9</v>
@@ -5814,13 +5805,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.5248133754989025</v>
+        <v>-0.5248089146577997</v>
       </c>
       <c r="C272">
-        <v>0.2086475074693973</v>
+        <v>0.2086339700879004</v>
       </c>
       <c r="D272">
-        <v>-0.7151608410725858</v>
+        <v>-0.7151802135299949</v>
       </c>
       <c r="E272">
         <v>9</v>
@@ -5834,13 +5825,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.836147215991078</v>
+        <v>-0.8361420598927306</v>
       </c>
       <c r="C273">
-        <v>-0.349479191119607</v>
+        <v>-0.3494937101296615</v>
       </c>
       <c r="D273">
-        <v>0.1485644316512009</v>
+        <v>0.1485436867607088</v>
       </c>
       <c r="E273">
         <v>9</v>
